--- a/public/templates/patrimonios_bulk_update_template.xlsx
+++ b/public/templates/patrimonios_bulk_update_template.xlsx
@@ -60,101 +60,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:Q2"/>
   <sheetData>
-    <row r="1" spans="1:18" customHeight="0">
+    <row r="1" spans="1:17" customHeight="0">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>NUPATRIMONIO</t>
+          <t>Nº PATRIMONIO</t>
         </is>
       </c>
       <c r="B1" s="0" t="inlineStr">
         <is>
-          <t>CDLOCAL</t>
+          <t>CONF.</t>
         </is>
       </c>
       <c r="C1" s="0" t="inlineStr">
         <is>
-          <t>CDPROJETO</t>
+          <t>Nº OS</t>
         </is>
       </c>
       <c r="D1" s="0" t="inlineStr">
         <is>
-          <t>DEPATRIMONIO</t>
+          <t>DESC.</t>
         </is>
       </c>
       <c r="E1" s="0" t="inlineStr">
         <is>
-          <t>SITUACAO</t>
+          <t>COD. OBJ.</t>
         </is>
       </c>
       <c r="F1" s="0" t="inlineStr">
         <is>
+          <t>OBS.</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>PESO</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>DIM.</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>PROJ.</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>LOCAL FIS.</t>
+        </is>
+      </c>
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>COD. TERMO</t>
+        </is>
+      </c>
+      <c r="L1" s="0" t="inlineStr">
+        <is>
           <t>MARCA</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="M1" s="0" t="inlineStr">
         <is>
           <t>MODELO</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
-        <is>
-          <t>NUSERIE</t>
-        </is>
-      </c>
-      <c r="I1" s="0" t="inlineStr">
-        <is>
-          <t>CDLOCALINTERNO</t>
-        </is>
-      </c>
-      <c r="J1" s="0" t="inlineStr">
-        <is>
-          <t>DTAQUISICAO</t>
-        </is>
-      </c>
-      <c r="K1" s="0" t="inlineStr">
-        <is>
-          <t>DTBAIXA</t>
-        </is>
-      </c>
-      <c r="L1" s="0" t="inlineStr">
-        <is>
-          <t>DTGARANTIA</t>
-        </is>
-      </c>
-      <c r="M1" s="0" t="inlineStr">
-        <is>
-          <t>DEHISTORICO</t>
-        </is>
-      </c>
       <c r="N1" s="0" t="inlineStr">
         <is>
-          <t>NUMOF</t>
+          <t>SIT.</t>
         </is>
       </c>
       <c r="O1" s="0" t="inlineStr">
         <is>
-          <t>CODOBJETO</t>
+          <t>MAT. RESP.</t>
         </is>
       </c>
       <c r="P1" s="0" t="inlineStr">
         <is>
-          <t>NMPLANTA</t>
+          <t>DT AQUIS.</t>
         </is>
       </c>
       <c r="Q1" s="0" t="inlineStr">
         <is>
-          <t>PESO</t>
-        </is>
-      </c>
-      <c r="R1" s="0" t="inlineStr">
-        <is>
-          <t>TAMANHO</t>
+          <t>DT BAIXA</t>
         </is>
       </c>
     </row>
-    <row r="2" spans="1:18" customHeight="0">
+    <row r="2" spans="1:17" customHeight="0">
       <c r="A2" s="0" t="inlineStr">
         <is>
           <t>123456</t>
@@ -162,77 +157,72 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>OF123</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>NOTEBOOK DELL</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>HISTORICO</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>15POL</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
           <t>2029</t>
         </is>
       </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>NOTEBOOK DELL</t>
-        </is>
-      </c>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="K2" s="0" t="inlineStr">
+        <is>
+          <t>PLANTA A</t>
+        </is>
+      </c>
+      <c r="L2" s="0" t="inlineStr">
+        <is>
+          <t>DELL</t>
+        </is>
+      </c>
+      <c r="M2" s="0" t="inlineStr">
+        <is>
+          <t>LATITUDE 5420</t>
+        </is>
+      </c>
+      <c r="N2" s="0" t="inlineStr">
         <is>
           <t>EM USO</t>
         </is>
       </c>
-      <c r="F2" s="0" t="inlineStr">
-        <is>
-          <t>DELL</t>
-        </is>
-      </c>
-      <c r="G2" s="0" t="inlineStr">
-        <is>
-          <t>LATITUDE 5420</t>
-        </is>
-      </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>SN123</t>
-        </is>
-      </c>
-      <c r="I2" s="0" t="inlineStr">
-        <is>
-          <t>SALA 02</t>
-        </is>
-      </c>
-      <c r="J2" s="0" t="inlineStr">
+      <c r="P2" s="0" t="inlineStr">
         <is>
           <t>2024-01-15</t>
-        </is>
-      </c>
-      <c r="M2" s="0" t="inlineStr">
-        <is>
-          <t>HISTORICO</t>
-        </is>
-      </c>
-      <c r="N2" s="0" t="inlineStr">
-        <is>
-          <t>OF123</t>
-        </is>
-      </c>
-      <c r="O2" s="0" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
-      <c r="P2" s="0" t="inlineStr">
-        <is>
-          <t>PLANTA A</t>
-        </is>
-      </c>
-      <c r="Q2" s="0" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="R2" s="0" t="inlineStr">
-        <is>
-          <t>15POL</t>
         </is>
       </c>
     </row>
